--- a/Data/flow/DPAC/DPAC Water Quality Data 2017.xlsx
+++ b/Data/flow/DPAC/DPAC Water Quality Data 2017.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gio\Documents\CSCAP\Data\DPAC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gio\Documents\GitHub\CSCAP\Sustainable_Corn_Paper\Data\flow\DPAC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="WQ" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">WQ!$A$1:$F$180</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">WQ!$A$1:$F$875</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ "/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
@@ -186,7 +186,158 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -462,11 +613,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F875"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
+      <pane ySplit="1" topLeftCell="A851" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C881" sqref="C881"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -496,7 +648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -516,7 +668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -536,7 +688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -556,7 +708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -576,7 +728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -596,7 +748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
@@ -616,7 +768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -636,7 +788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -656,7 +808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -676,7 +828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -696,7 +848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -716,7 +868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -736,7 +888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
@@ -756,7 +908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
@@ -776,7 +928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>6</v>
       </c>
@@ -796,7 +948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>6</v>
       </c>
@@ -816,7 +968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
@@ -836,7 +988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>6</v>
       </c>
@@ -856,7 +1008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>6</v>
       </c>
@@ -876,7 +1028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
@@ -896,7 +1048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>6</v>
       </c>
@@ -916,7 +1068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>6</v>
       </c>
@@ -936,7 +1088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>6</v>
       </c>
@@ -956,7 +1108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
@@ -976,7 +1128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>6</v>
       </c>
@@ -996,7 +1148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>6</v>
       </c>
@@ -1016,7 +1168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>6</v>
       </c>
@@ -1036,7 +1188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>6</v>
       </c>
@@ -1056,7 +1208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>6</v>
       </c>
@@ -1076,7 +1228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>6</v>
       </c>
@@ -1096,7 +1248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>6</v>
       </c>
@@ -1116,7 +1268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>6</v>
       </c>
@@ -1136,7 +1288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>6</v>
       </c>
@@ -1156,7 +1308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>6</v>
       </c>
@@ -1176,7 +1328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>6</v>
       </c>
@@ -1196,7 +1348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>6</v>
       </c>
@@ -1216,7 +1368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>6</v>
       </c>
@@ -1236,7 +1388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>6</v>
       </c>
@@ -1256,7 +1408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>6</v>
       </c>
@@ -1276,7 +1428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>6</v>
       </c>
@@ -1296,7 +1448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>6</v>
       </c>
@@ -1316,7 +1468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>6</v>
       </c>
@@ -1336,7 +1488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>6</v>
       </c>
@@ -1356,7 +1508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>6</v>
       </c>
@@ -1376,7 +1528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>6</v>
       </c>
@@ -1396,7 +1548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>6</v>
       </c>
@@ -1416,7 +1568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>6</v>
       </c>
@@ -1436,7 +1588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>6</v>
       </c>
@@ -1456,7 +1608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>6</v>
       </c>
@@ -1476,7 +1628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>6</v>
       </c>
@@ -1496,7 +1648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>6</v>
       </c>
@@ -1516,7 +1668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>6</v>
       </c>
@@ -1536,7 +1688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>6</v>
       </c>
@@ -1556,7 +1708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>6</v>
       </c>
@@ -1576,7 +1728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>6</v>
       </c>
@@ -1596,7 +1748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>6</v>
       </c>
@@ -1616,7 +1768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>6</v>
       </c>
@@ -1636,7 +1788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>6</v>
       </c>
@@ -1656,7 +1808,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>6</v>
       </c>
@@ -1676,7 +1828,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>6</v>
       </c>
@@ -1696,7 +1848,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>6</v>
       </c>
@@ -1716,7 +1868,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>6</v>
       </c>
@@ -1736,7 +1888,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>6</v>
       </c>
@@ -1756,7 +1908,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>6</v>
       </c>
@@ -1776,7 +1928,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>6</v>
       </c>
@@ -1796,7 +1948,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>6</v>
       </c>
@@ -1816,7 +1968,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>6</v>
       </c>
@@ -1836,7 +1988,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>6</v>
       </c>
@@ -1856,7 +2008,7 @@
         <v>0.64500000000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>6</v>
       </c>
@@ -1876,7 +2028,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>6</v>
       </c>
@@ -1896,7 +2048,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>6</v>
       </c>
@@ -1916,7 +2068,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>6</v>
       </c>
@@ -1936,7 +2088,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>6</v>
       </c>
@@ -1956,7 +2108,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>6</v>
       </c>
@@ -1976,7 +2128,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>6</v>
       </c>
@@ -1996,7 +2148,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>6</v>
       </c>
@@ -2016,7 +2168,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>6</v>
       </c>
@@ -2036,7 +2188,7 @@
         <v>0.442</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>6</v>
       </c>
@@ -2056,7 +2208,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>6</v>
       </c>
@@ -2076,7 +2228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>6</v>
       </c>
@@ -2096,7 +2248,7 @@
         <v>0.217</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>6</v>
       </c>
@@ -2116,7 +2268,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>6</v>
       </c>
@@ -2136,7 +2288,7 @@
         <v>0.57199999999999995</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>6</v>
       </c>
@@ -2156,7 +2308,7 @@
         <v>0.53400000000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>6</v>
       </c>
@@ -2176,7 +2328,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>6</v>
       </c>
@@ -2196,7 +2348,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>6</v>
       </c>
@@ -2216,7 +2368,7 @@
         <v>0.34100000000000003</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>6</v>
       </c>
@@ -2236,7 +2388,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>6</v>
       </c>
@@ -2256,7 +2408,7 @@
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>6</v>
       </c>
@@ -2276,7 +2428,7 @@
         <v>0.94199999999999995</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>6</v>
       </c>
@@ -2296,7 +2448,7 @@
         <v>0.56899999999999995</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>6</v>
       </c>
@@ -2316,7 +2468,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>6</v>
       </c>
@@ -2336,7 +2488,7 @@
         <v>0.54500000000000004</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>6</v>
       </c>
@@ -2356,7 +2508,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>6</v>
       </c>
@@ -2376,7 +2528,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>6</v>
       </c>
@@ -2396,7 +2548,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>6</v>
       </c>
@@ -2416,7 +2568,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>6</v>
       </c>
@@ -2436,7 +2588,7 @@
         <v>0.32300000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>6</v>
       </c>
@@ -2456,7 +2608,7 @@
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>6</v>
       </c>
@@ -2476,7 +2628,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>6</v>
       </c>
@@ -2496,7 +2648,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>6</v>
       </c>
@@ -2516,7 +2668,7 @@
         <v>0.27100000000000002</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>6</v>
       </c>
@@ -2536,7 +2688,7 @@
         <v>2.1589999999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>6</v>
       </c>
@@ -2556,7 +2708,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>6</v>
       </c>
@@ -2576,7 +2728,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>6</v>
       </c>
@@ -2596,7 +2748,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>6</v>
       </c>
@@ -2616,7 +2768,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>6</v>
       </c>
@@ -2636,7 +2788,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>6</v>
       </c>
@@ -2656,7 +2808,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>6</v>
       </c>
@@ -2676,7 +2828,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>6</v>
       </c>
@@ -2696,7 +2848,7 @@
         <v>0.442</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>6</v>
       </c>
@@ -2716,7 +2868,7 @@
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>6</v>
       </c>
@@ -2736,7 +2888,7 @@
         <v>0.35399999999999998</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>6</v>
       </c>
@@ -2756,7 +2908,7 @@
         <v>0.46700000000000003</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>6</v>
       </c>
@@ -2776,7 +2928,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>6</v>
       </c>
@@ -2796,7 +2948,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>6</v>
       </c>
@@ -2816,7 +2968,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>6</v>
       </c>
@@ -2836,7 +2988,7 @@
         <v>0.31900000000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>6</v>
       </c>
@@ -2856,7 +3008,7 @@
         <v>0.35499999999999998</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>6</v>
       </c>
@@ -2876,7 +3028,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>6</v>
       </c>
@@ -2896,7 +3048,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>6</v>
       </c>
@@ -2916,7 +3068,7 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>6</v>
       </c>
@@ -2936,7 +3088,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>6</v>
       </c>
@@ -2956,7 +3108,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>6</v>
       </c>
@@ -2976,7 +3128,7 @@
         <v>0.31900000000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>6</v>
       </c>
@@ -2996,7 +3148,7 @@
         <v>0.54200000000000004</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>6</v>
       </c>
@@ -3016,7 +3168,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>6</v>
       </c>
@@ -3036,7 +3188,7 @@
         <v>0.30299999999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>6</v>
       </c>
@@ -3056,7 +3208,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>6</v>
       </c>
@@ -3076,7 +3228,7 @@
         <v>0.214</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>6</v>
       </c>
@@ -3096,7 +3248,7 @@
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>6</v>
       </c>
@@ -3116,7 +3268,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>6</v>
       </c>
@@ -3136,7 +3288,7 @@
         <v>0.224</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>6</v>
       </c>
@@ -3156,7 +3308,7 @@
         <v>0.14899999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>6</v>
       </c>
@@ -3176,7 +3328,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>6</v>
       </c>
@@ -3196,7 +3348,7 @@
         <v>0.183</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>6</v>
       </c>
@@ -3216,7 +3368,7 @@
         <v>0.23799999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>6</v>
       </c>
@@ -3236,7 +3388,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>6</v>
       </c>
@@ -3256,7 +3408,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>6</v>
       </c>
@@ -3276,7 +3428,7 @@
         <v>0.372</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>6</v>
       </c>
@@ -3296,7 +3448,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>6</v>
       </c>
@@ -3316,7 +3468,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>6</v>
       </c>
@@ -3336,7 +3488,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>6</v>
       </c>
@@ -3356,7 +3508,7 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>6</v>
       </c>
@@ -3376,7 +3528,7 @@
         <v>0.65600000000000003</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>6</v>
       </c>
@@ -3396,7 +3548,7 @@
         <v>0.32700000000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>6</v>
       </c>
@@ -3416,7 +3568,7 @@
         <v>0.14899999999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>6</v>
       </c>
@@ -3436,7 +3588,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>6</v>
       </c>
@@ -3456,7 +3608,7 @@
         <v>0.20200000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>6</v>
       </c>
@@ -3476,7 +3628,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>6</v>
       </c>
@@ -3496,7 +3648,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>6</v>
       </c>
@@ -3516,7 +3668,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>6</v>
       </c>
@@ -3536,7 +3688,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>6</v>
       </c>
@@ -3556,7 +3708,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>6</v>
       </c>
@@ -3576,7 +3728,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>6</v>
       </c>
@@ -3596,7 +3748,7 @@
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>6</v>
       </c>
@@ -3616,7 +3768,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>6</v>
       </c>
@@ -3636,7 +3788,7 @@
         <v>0.57199999999999995</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>6</v>
       </c>
@@ -3656,7 +3808,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>6</v>
       </c>
@@ -3676,7 +3828,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>6</v>
       </c>
@@ -3696,7 +3848,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>6</v>
       </c>
@@ -3716,7 +3868,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>6</v>
       </c>
@@ -3736,7 +3888,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>6</v>
       </c>
@@ -3756,7 +3908,7 @@
         <v>1.6419999999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>6</v>
       </c>
@@ -3776,7 +3928,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>6</v>
       </c>
@@ -3796,7 +3948,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>6</v>
       </c>
@@ -3816,7 +3968,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>6</v>
       </c>
@@ -3836,7 +3988,7 @@
         <v>0.42299999999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>6</v>
       </c>
@@ -3856,7 +4008,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>6</v>
       </c>
@@ -3876,7 +4028,7 @@
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>6</v>
       </c>
@@ -3896,7 +4048,7 @@
         <v>0.48099999999999998</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>6</v>
       </c>
@@ -3916,7 +4068,7 @@
         <v>0.248</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>6</v>
       </c>
@@ -3936,7 +4088,7 @@
         <v>0.376</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>6</v>
       </c>
@@ -3956,7 +4108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>6</v>
       </c>
@@ -3976,7 +4128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>6</v>
       </c>
@@ -3996,7 +4148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>6</v>
       </c>
@@ -4016,7 +4168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>6</v>
       </c>
@@ -4036,7 +4188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>6</v>
       </c>
@@ -4056,7 +4208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>6</v>
       </c>
@@ -4076,7 +4228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="15" t="s">
         <v>10</v>
       </c>
@@ -4096,7 +4248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>10</v>
       </c>
@@ -4116,7 +4268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>10</v>
       </c>
@@ -4136,7 +4288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>10</v>
       </c>
@@ -4156,7 +4308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>10</v>
       </c>
@@ -4176,7 +4328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>10</v>
       </c>
@@ -4196,7 +4348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>10</v>
       </c>
@@ -4216,7 +4368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
         <v>10</v>
       </c>
@@ -4236,7 +4388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>10</v>
       </c>
@@ -4256,7 +4408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>10</v>
       </c>
@@ -4276,7 +4428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>10</v>
       </c>
@@ -4296,7 +4448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>10</v>
       </c>
@@ -4316,7 +4468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>10</v>
       </c>
@@ -4336,7 +4488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>10</v>
       </c>
@@ -4356,7 +4508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
         <v>10</v>
       </c>
@@ -4376,7 +4528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
         <v>10</v>
       </c>
@@ -4396,7 +4548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>10</v>
       </c>
@@ -4416,7 +4568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>10</v>
       </c>
@@ -4436,7 +4588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>10</v>
       </c>
@@ -4456,7 +4608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>10</v>
       </c>
@@ -4476,7 +4628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>10</v>
       </c>
@@ -4496,7 +4648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>10</v>
       </c>
@@ -4516,7 +4668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>10</v>
       </c>
@@ -4536,7 +4688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
         <v>10</v>
       </c>
@@ -4556,7 +4708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
         <v>10</v>
       </c>
@@ -4576,7 +4728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>10</v>
       </c>
@@ -4596,7 +4748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
         <v>10</v>
       </c>
@@ -4616,7 +4768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
         <v>10</v>
       </c>
@@ -4636,7 +4788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>10</v>
       </c>
@@ -4656,7 +4808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
         <v>10</v>
       </c>
@@ -4676,7 +4828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>10</v>
       </c>
@@ -4696,7 +4848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>10</v>
       </c>
@@ -4716,7 +4868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>10</v>
       </c>
@@ -4736,7 +4888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>10</v>
       </c>
@@ -4756,7 +4908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
         <v>10</v>
       </c>
@@ -4776,7 +4928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
         <v>10</v>
       </c>
@@ -4796,7 +4948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>10</v>
       </c>
@@ -4816,7 +4968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
         <v>10</v>
       </c>
@@ -4836,7 +4988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>10</v>
       </c>
@@ -4856,7 +5008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
         <v>10</v>
       </c>
@@ -4876,7 +5028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>10</v>
       </c>
@@ -4896,7 +5048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
         <v>10</v>
       </c>
@@ -4916,7 +5068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
         <v>10</v>
       </c>
@@ -4936,7 +5088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
         <v>10</v>
       </c>
@@ -4956,7 +5108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>10</v>
       </c>
@@ -4976,7 +5128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>10</v>
       </c>
@@ -4996,7 +5148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>10</v>
       </c>
@@ -5016,7 +5168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>10</v>
       </c>
@@ -5036,7 +5188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>10</v>
       </c>
@@ -5056,7 +5208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>10</v>
       </c>
@@ -5076,7 +5228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>10</v>
       </c>
@@ -5096,7 +5248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>10</v>
       </c>
@@ -5116,7 +5268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>10</v>
       </c>
@@ -5136,7 +5288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>10</v>
       </c>
@@ -5156,7 +5308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
         <v>10</v>
       </c>
@@ -5176,7 +5328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
         <v>10</v>
       </c>
@@ -5196,7 +5348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
         <v>10</v>
       </c>
@@ -5216,7 +5368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
         <v>10</v>
       </c>
@@ -5236,7 +5388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="15" t="s">
         <v>10</v>
       </c>
@@ -5256,7 +5408,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="15" t="s">
         <v>10</v>
       </c>
@@ -5276,7 +5428,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="15" t="s">
         <v>10</v>
       </c>
@@ -5296,7 +5448,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="15" t="s">
         <v>10</v>
       </c>
@@ -5316,7 +5468,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="15" t="s">
         <v>10</v>
       </c>
@@ -5336,7 +5488,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="15" t="s">
         <v>10</v>
       </c>
@@ -5356,7 +5508,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="15" t="s">
         <v>10</v>
       </c>
@@ -5376,7 +5528,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="15" t="s">
         <v>10</v>
       </c>
@@ -5396,7 +5548,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="15" t="s">
         <v>10</v>
       </c>
@@ -5416,7 +5568,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="15" t="s">
         <v>10</v>
       </c>
@@ -5436,7 +5588,7 @@
         <v>0.20100000000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="15" t="s">
         <v>10</v>
       </c>
@@ -5456,7 +5608,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="15" t="s">
         <v>10</v>
       </c>
@@ -5476,7 +5628,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="15" t="s">
         <v>10</v>
       </c>
@@ -5496,7 +5648,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="15" t="s">
         <v>10</v>
       </c>
@@ -5516,7 +5668,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="15" t="s">
         <v>10</v>
       </c>
@@ -5536,7 +5688,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="15" t="s">
         <v>10</v>
       </c>
@@ -5556,7 +5708,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="15" t="s">
         <v>10</v>
       </c>
@@ -5576,7 +5728,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="15" t="s">
         <v>10</v>
       </c>
@@ -5596,7 +5748,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="15" t="s">
         <v>10</v>
       </c>
@@ -5616,7 +5768,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="15" t="s">
         <v>10</v>
       </c>
@@ -5636,7 +5788,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="15" t="s">
         <v>10</v>
       </c>
@@ -5656,7 +5808,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="15" t="s">
         <v>10</v>
       </c>
@@ -5676,7 +5828,7 @@
         <v>0.26100000000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="15" t="s">
         <v>10</v>
       </c>
@@ -5696,7 +5848,7 @@
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="15" t="s">
         <v>10</v>
       </c>
@@ -5716,7 +5868,7 @@
         <v>0.60599999999999998</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
         <v>10</v>
       </c>
@@ -5736,7 +5888,7 @@
         <v>0.72699999999999998</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
         <v>10</v>
       </c>
@@ -5756,7 +5908,7 @@
         <v>0.54900000000000004</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
         <v>10</v>
       </c>
@@ -5776,7 +5928,7 @@
         <v>0.51500000000000001</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
         <v>10</v>
       </c>
@@ -5796,7 +5948,7 @@
         <v>0.24399999999999999</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
         <v>10</v>
       </c>
@@ -5816,7 +5968,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
         <v>10</v>
       </c>
@@ -5836,7 +5988,7 @@
         <v>0.25900000000000001</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
         <v>10</v>
       </c>
@@ -5856,7 +6008,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
         <v>10</v>
       </c>
@@ -5876,7 +6028,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
         <v>10</v>
       </c>
@@ -5896,7 +6048,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
         <v>10</v>
       </c>
@@ -5916,7 +6068,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
         <v>10</v>
       </c>
@@ -5936,7 +6088,7 @@
         <v>0.45700000000000002</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
         <v>10</v>
       </c>
@@ -5956,7 +6108,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
         <v>10</v>
       </c>
@@ -5976,7 +6128,7 @@
         <v>0.65900000000000003</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
         <v>10</v>
       </c>
@@ -5996,7 +6148,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="15" t="s">
         <v>10</v>
       </c>
@@ -6016,7 +6168,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
         <v>10</v>
       </c>
@@ -6036,7 +6188,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
         <v>10</v>
       </c>
@@ -6056,7 +6208,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="15" t="s">
         <v>10</v>
       </c>
@@ -6076,7 +6228,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
         <v>10</v>
       </c>
@@ -6096,7 +6248,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
         <v>10</v>
       </c>
@@ -6116,7 +6268,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="15" t="s">
         <v>10</v>
       </c>
@@ -6136,7 +6288,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
         <v>10</v>
       </c>
@@ -6156,7 +6308,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
         <v>10</v>
       </c>
@@ -6176,7 +6328,7 @@
         <v>0.23899999999999999</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="15" t="s">
         <v>10</v>
       </c>
@@ -6196,7 +6348,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
         <v>10</v>
       </c>
@@ -6216,7 +6368,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
         <v>10</v>
       </c>
@@ -6236,7 +6388,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
         <v>10</v>
       </c>
@@ -6256,7 +6408,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
         <v>10</v>
       </c>
@@ -6276,7 +6428,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
         <v>10</v>
       </c>
@@ -6296,7 +6448,7 @@
         <v>0.35599999999999998</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
         <v>10</v>
       </c>
@@ -6316,7 +6468,7 @@
         <v>1.264</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
         <v>10</v>
       </c>
@@ -6336,7 +6488,7 @@
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
         <v>10</v>
       </c>
@@ -6356,7 +6508,7 @@
         <v>0.42599999999999999</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
         <v>10</v>
       </c>
@@ -6376,7 +6528,7 @@
         <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
         <v>10</v>
       </c>
@@ -6396,7 +6548,7 @@
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
         <v>10</v>
       </c>
@@ -6416,7 +6568,7 @@
         <v>0.41799999999999998</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="7" t="s">
         <v>10</v>
       </c>
@@ -6436,7 +6588,7 @@
         <v>0.378</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="7" t="s">
         <v>10</v>
       </c>
@@ -6456,7 +6608,7 @@
         <v>0.187</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="7" t="s">
         <v>10</v>
       </c>
@@ -6476,7 +6628,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="7" t="s">
         <v>10</v>
       </c>
@@ -6496,7 +6648,7 @@
         <v>0.25900000000000001</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="7" t="s">
         <v>10</v>
       </c>
@@ -6516,7 +6668,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="7" t="s">
         <v>10</v>
       </c>
@@ -6536,7 +6688,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
         <v>10</v>
       </c>
@@ -6556,7 +6708,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
         <v>10</v>
       </c>
@@ -6576,7 +6728,7 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="7" t="s">
         <v>10</v>
       </c>
@@ -6596,7 +6748,7 @@
         <v>0.107</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="7" t="s">
         <v>10</v>
       </c>
@@ -6616,7 +6768,7 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
         <v>10</v>
       </c>
@@ -6636,7 +6788,7 @@
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
         <v>10</v>
       </c>
@@ -6656,7 +6808,7 @@
         <v>0.26200000000000001</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
         <v>10</v>
       </c>
@@ -6676,7 +6828,7 @@
         <v>0.32100000000000001</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
         <v>10</v>
       </c>
@@ -6696,7 +6848,7 @@
         <v>0.248</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
         <v>10</v>
       </c>
@@ -6716,7 +6868,7 @@
         <v>0.19900000000000001</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
         <v>10</v>
       </c>
@@ -6736,7 +6888,7 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="7" t="s">
         <v>10</v>
       </c>
@@ -6756,7 +6908,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="7" t="s">
         <v>10</v>
       </c>
@@ -6776,7 +6928,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="7" t="s">
         <v>10</v>
       </c>
@@ -6796,7 +6948,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="7" t="s">
         <v>10</v>
       </c>
@@ -6816,7 +6968,7 @@
         <v>0.219</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="7" t="s">
         <v>10</v>
       </c>
@@ -6836,7 +6988,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="7" t="s">
         <v>10</v>
       </c>
@@ -6856,7 +7008,7 @@
         <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="7" t="s">
         <v>10</v>
       </c>
@@ -6876,7 +7028,7 @@
         <v>0.22900000000000001</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="7" t="s">
         <v>10</v>
       </c>
@@ -6896,7 +7048,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="7" t="s">
         <v>10</v>
       </c>
@@ -6916,7 +7068,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="7" t="s">
         <v>10</v>
       </c>
@@ -6936,7 +7088,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="7" t="s">
         <v>10</v>
       </c>
@@ -6956,7 +7108,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="7" t="s">
         <v>10</v>
       </c>
@@ -6976,7 +7128,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="7" t="s">
         <v>10</v>
       </c>
@@ -6996,7 +7148,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="7" t="s">
         <v>10</v>
       </c>
@@ -7016,7 +7168,7 @@
         <v>0.57099999999999995</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="7" t="s">
         <v>10</v>
       </c>
@@ -7036,7 +7188,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="7" t="s">
         <v>10</v>
       </c>
@@ -7056,7 +7208,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="7" t="s">
         <v>10</v>
       </c>
@@ -7076,7 +7228,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="7" t="s">
         <v>10</v>
       </c>
@@ -7096,7 +7248,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="7" t="s">
         <v>10</v>
       </c>
@@ -7116,7 +7268,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="7" t="s">
         <v>10</v>
       </c>
@@ -7136,7 +7288,7 @@
         <v>0.39300000000000002</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="7" t="s">
         <v>10</v>
       </c>
@@ -7156,7 +7308,7 @@
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="7" t="s">
         <v>10</v>
       </c>
@@ -7176,7 +7328,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="7" t="s">
         <v>10</v>
       </c>
@@ -7196,7 +7348,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="7" t="s">
         <v>10</v>
       </c>
@@ -7216,7 +7368,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="7" t="s">
         <v>10</v>
       </c>
@@ -7236,7 +7388,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="7" t="s">
         <v>10</v>
       </c>
@@ -7256,7 +7408,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="7" t="s">
         <v>10</v>
       </c>
@@ -7276,7 +7428,7 @@
         <v>0.107</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="7" t="s">
         <v>10</v>
       </c>
@@ -7296,7 +7448,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="7" t="s">
         <v>10</v>
       </c>
@@ -7316,7 +7468,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="7" t="s">
         <v>10</v>
       </c>
@@ -7336,7 +7488,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="7" t="s">
         <v>10</v>
       </c>
@@ -7356,7 +7508,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="7" t="s">
         <v>10</v>
       </c>
@@ -7376,7 +7528,7 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="7" t="s">
         <v>10</v>
       </c>
@@ -7396,7 +7548,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="347" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="7" t="s">
         <v>10</v>
       </c>
@@ -7416,7 +7568,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="7" t="s">
         <v>10</v>
       </c>
@@ -7436,7 +7588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="7" t="s">
         <v>10</v>
       </c>
@@ -7456,7 +7608,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="350" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="7" t="s">
         <v>10</v>
       </c>
@@ -7476,7 +7628,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="7" t="s">
         <v>10</v>
       </c>
@@ -7496,7 +7648,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="7" t="s">
         <v>10</v>
       </c>
@@ -7516,7 +7668,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="353" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="7" t="s">
         <v>10</v>
       </c>
@@ -7536,7 +7688,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="7" t="s">
         <v>10</v>
       </c>
@@ -7556,7 +7708,7 @@
         <v>0.28899999999999998</v>
       </c>
     </row>
-    <row r="355" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="7" t="s">
         <v>10</v>
       </c>
@@ -7576,7 +7728,7 @@
         <v>0.54700000000000004</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="7" t="s">
         <v>10</v>
       </c>
@@ -7596,7 +7748,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="357" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="7" t="s">
         <v>10</v>
       </c>
@@ -7616,7 +7768,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="7" t="s">
         <v>10</v>
       </c>
@@ -7636,7 +7788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="7" t="s">
         <v>10</v>
       </c>
@@ -7656,7 +7808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="7" t="s">
         <v>10</v>
       </c>
@@ -7676,7 +7828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="361" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="7" t="s">
         <v>10</v>
       </c>
@@ -7696,7 +7848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="362" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="7" t="s">
         <v>10</v>
       </c>
@@ -7716,7 +7868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="363" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="7" t="s">
         <v>10</v>
       </c>
@@ -7736,7 +7888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="364" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="7" t="s">
         <v>10</v>
       </c>
@@ -7756,7 +7908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="7" t="s">
         <v>10</v>
       </c>
@@ -7776,7 +7928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="7" t="s">
         <v>9</v>
       </c>
@@ -7796,7 +7948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="7" t="s">
         <v>9</v>
       </c>
@@ -7816,7 +7968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="368" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="7" t="s">
         <v>9</v>
       </c>
@@ -7836,7 +7988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="369" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="7" t="s">
         <v>9</v>
       </c>
@@ -7856,7 +8008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="7" t="s">
         <v>9</v>
       </c>
@@ -7876,7 +8028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="371" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="7" t="s">
         <v>9</v>
       </c>
@@ -7896,7 +8048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="372" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="7" t="s">
         <v>9</v>
       </c>
@@ -7916,7 +8068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="7" t="s">
         <v>9</v>
       </c>
@@ -7936,7 +8088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="374" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="7" t="s">
         <v>9</v>
       </c>
@@ -7956,7 +8108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="7" t="s">
         <v>9</v>
       </c>
@@ -7976,7 +8128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="376" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="7" t="s">
         <v>9</v>
       </c>
@@ -7996,7 +8148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="377" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="7" t="s">
         <v>9</v>
       </c>
@@ -8016,7 +8168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="378" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="7" t="s">
         <v>9</v>
       </c>
@@ -8036,7 +8188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="379" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="7" t="s">
         <v>9</v>
       </c>
@@ -8056,7 +8208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="380" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="7" t="s">
         <v>9</v>
       </c>
@@ -8076,7 +8228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="381" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="7" t="s">
         <v>9</v>
       </c>
@@ -8096,7 +8248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="382" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="7" t="s">
         <v>9</v>
       </c>
@@ -8116,7 +8268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="383" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="7" t="s">
         <v>9</v>
       </c>
@@ -8136,7 +8288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="384" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="7" t="s">
         <v>9</v>
       </c>
@@ -8156,7 +8308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="385" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="7" t="s">
         <v>9</v>
       </c>
@@ -8176,7 +8328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="386" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="7" t="s">
         <v>9</v>
       </c>
@@ -8196,7 +8348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="387" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="7" t="s">
         <v>9</v>
       </c>
@@ -8216,7 +8368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="388" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="7" t="s">
         <v>9</v>
       </c>
@@ -8236,7 +8388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="389" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="7" t="s">
         <v>9</v>
       </c>
@@ -8256,7 +8408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="390" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="7" t="s">
         <v>9</v>
       </c>
@@ -8276,7 +8428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="391" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="7" t="s">
         <v>9</v>
       </c>
@@ -8296,7 +8448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="392" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="7" t="s">
         <v>9</v>
       </c>
@@ -8316,7 +8468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="393" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="7" t="s">
         <v>9</v>
       </c>
@@ -8336,7 +8488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="7" t="s">
         <v>9</v>
       </c>
@@ -8356,7 +8508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="395" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="7" t="s">
         <v>9</v>
       </c>
@@ -8376,7 +8528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="396" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="7" t="s">
         <v>9</v>
       </c>
@@ -8396,7 +8548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="397" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="7" t="s">
         <v>9</v>
       </c>
@@ -8416,7 +8568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="398" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="7" t="s">
         <v>9</v>
       </c>
@@ -8436,7 +8588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="399" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="7" t="s">
         <v>9</v>
       </c>
@@ -8456,7 +8608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="400" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="7" t="s">
         <v>9</v>
       </c>
@@ -8476,7 +8628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="401" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="7" t="s">
         <v>9</v>
       </c>
@@ -8496,7 +8648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="402" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="7" t="s">
         <v>9</v>
       </c>
@@ -8516,7 +8668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="403" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="7" t="s">
         <v>9</v>
       </c>
@@ -8536,7 +8688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="404" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="7" t="s">
         <v>9</v>
       </c>
@@ -8556,7 +8708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="405" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="7" t="s">
         <v>9</v>
       </c>
@@ -8576,7 +8728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="406" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="7" t="s">
         <v>9</v>
       </c>
@@ -8596,7 +8748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="407" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="7" t="s">
         <v>9</v>
       </c>
@@ -8616,7 +8768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="408" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="7" t="s">
         <v>9</v>
       </c>
@@ -8636,7 +8788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="409" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="7" t="s">
         <v>9</v>
       </c>
@@ -8656,7 +8808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="410" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="7" t="s">
         <v>9</v>
       </c>
@@ -8676,7 +8828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="411" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="7" t="s">
         <v>9</v>
       </c>
@@ -8696,7 +8848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="412" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="7" t="s">
         <v>9</v>
       </c>
@@ -8716,7 +8868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="413" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="7" t="s">
         <v>9</v>
       </c>
@@ -8736,7 +8888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="414" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="7" t="s">
         <v>9</v>
       </c>
@@ -8756,7 +8908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="415" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="7" t="s">
         <v>9</v>
       </c>
@@ -8776,7 +8928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="416" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="7" t="s">
         <v>9</v>
       </c>
@@ -8796,7 +8948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="417" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="7" t="s">
         <v>9</v>
       </c>
@@ -8816,7 +8968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="418" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="7" t="s">
         <v>9</v>
       </c>
@@ -8836,7 +8988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="419" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="7" t="s">
         <v>9</v>
       </c>
@@ -8856,7 +9008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="420" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="7" t="s">
         <v>9</v>
       </c>
@@ -8876,7 +9028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="421" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="7" t="s">
         <v>9</v>
       </c>
@@ -8896,7 +9048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="422" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="7" t="s">
         <v>9</v>
       </c>
@@ -8916,7 +9068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="423" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="7" t="s">
         <v>9</v>
       </c>
@@ -8936,7 +9088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="424" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="7" t="s">
         <v>9</v>
       </c>
@@ -8956,7 +9108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="425" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="7" t="s">
         <v>9</v>
       </c>
@@ -8976,7 +9128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="426" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="7" t="s">
         <v>9</v>
       </c>
@@ -8996,7 +9148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="427" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="7" t="s">
         <v>9</v>
       </c>
@@ -9016,7 +9168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="428" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="7" t="s">
         <v>9</v>
       </c>
@@ -9036,7 +9188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="429" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="7" t="s">
         <v>9</v>
       </c>
@@ -9056,7 +9208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="430" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="7" t="s">
         <v>9</v>
       </c>
@@ -9076,7 +9228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="431" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="7" t="s">
         <v>9</v>
       </c>
@@ -9096,7 +9248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="432" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="7" t="s">
         <v>9</v>
       </c>
@@ -9116,7 +9268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="433" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="7" t="s">
         <v>9</v>
       </c>
@@ -9136,7 +9288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="434" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="7" t="s">
         <v>9</v>
       </c>
@@ -9156,7 +9308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="435" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="7" t="s">
         <v>9</v>
       </c>
@@ -9176,7 +9328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="436" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="7" t="s">
         <v>9</v>
       </c>
@@ -9196,7 +9348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="437" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="7" t="s">
         <v>9</v>
       </c>
@@ -9216,7 +9368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="438" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="7" t="s">
         <v>9</v>
       </c>
@@ -9236,7 +9388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="439" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="7" t="s">
         <v>9</v>
       </c>
@@ -9256,7 +9408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="440" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="7" t="s">
         <v>9</v>
       </c>
@@ -9276,7 +9428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="441" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="15" t="s">
         <v>9</v>
       </c>
@@ -9296,7 +9448,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="442" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="15" t="s">
         <v>9</v>
       </c>
@@ -9316,7 +9468,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="443" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="15" t="s">
         <v>9</v>
       </c>
@@ -9336,7 +9488,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="444" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="15" t="s">
         <v>9</v>
       </c>
@@ -9356,7 +9508,7 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="445" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="15" t="s">
         <v>9</v>
       </c>
@@ -9376,7 +9528,7 @@
         <v>0.39100000000000001</v>
       </c>
     </row>
-    <row r="446" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="15" t="s">
         <v>9</v>
       </c>
@@ -9396,7 +9548,7 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="447" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="15" t="s">
         <v>9</v>
       </c>
@@ -9416,7 +9568,7 @@
         <v>0.26200000000000001</v>
       </c>
     </row>
-    <row r="448" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="15" t="s">
         <v>9</v>
       </c>
@@ -9436,7 +9588,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="449" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="15" t="s">
         <v>9</v>
       </c>
@@ -9456,7 +9608,7 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="450" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="15" t="s">
         <v>9</v>
       </c>
@@ -9476,7 +9628,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="451" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="15" t="s">
         <v>9</v>
       </c>
@@ -9496,7 +9648,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="452" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="15" t="s">
         <v>9</v>
       </c>
@@ -9516,7 +9668,7 @@
         <v>0.311</v>
       </c>
     </row>
-    <row r="453" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="15" t="s">
         <v>9</v>
       </c>
@@ -9536,7 +9688,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="454" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="15" t="s">
         <v>9</v>
       </c>
@@ -9556,7 +9708,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="455" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="15" t="s">
         <v>9</v>
       </c>
@@ -9576,7 +9728,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="456" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="15" t="s">
         <v>9</v>
       </c>
@@ -9596,7 +9748,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="457" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="15" t="s">
         <v>9</v>
       </c>
@@ -9616,7 +9768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="458" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="7" t="s">
         <v>9</v>
       </c>
@@ -9636,7 +9788,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="459" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="15" t="s">
         <v>9</v>
       </c>
@@ -9656,7 +9808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="460" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="15" t="s">
         <v>9</v>
       </c>
@@ -9676,7 +9828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="461" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="15" t="s">
         <v>9</v>
       </c>
@@ -9696,7 +9848,7 @@
         <v>0.19900000000000001</v>
       </c>
     </row>
-    <row r="462" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="15" t="s">
         <v>9</v>
       </c>
@@ -9716,7 +9868,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="463" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="15" t="s">
         <v>9</v>
       </c>
@@ -9736,7 +9888,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="464" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="15" t="s">
         <v>9</v>
       </c>
@@ -9756,7 +9908,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="465" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="15" t="s">
         <v>9</v>
       </c>
@@ -9776,7 +9928,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="466" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="15" t="s">
         <v>9</v>
       </c>
@@ -9796,7 +9948,7 @@
         <v>0.25900000000000001</v>
       </c>
     </row>
-    <row r="467" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="15" t="s">
         <v>9</v>
       </c>
@@ -9816,7 +9968,7 @@
         <v>0.96699999999999997</v>
       </c>
     </row>
-    <row r="468" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="15" t="s">
         <v>9</v>
       </c>
@@ -9836,7 +9988,7 @@
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="469" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="7" t="s">
         <v>9</v>
       </c>
@@ -9856,7 +10008,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="470" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="7" t="s">
         <v>9</v>
       </c>
@@ -9876,7 +10028,7 @@
         <v>0.53100000000000003</v>
       </c>
     </row>
-    <row r="471" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="7" t="s">
         <v>9</v>
       </c>
@@ -9896,7 +10048,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="472" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="7" t="s">
         <v>9</v>
       </c>
@@ -9916,7 +10068,7 @@
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="473" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="7" t="s">
         <v>9</v>
       </c>
@@ -9936,7 +10088,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="474" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="7" t="s">
         <v>9</v>
       </c>
@@ -9956,7 +10108,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="475" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="7" t="s">
         <v>9</v>
       </c>
@@ -9976,7 +10128,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="476" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="7" t="s">
         <v>9</v>
       </c>
@@ -9996,7 +10148,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="477" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="7" t="s">
         <v>9</v>
       </c>
@@ -10016,7 +10168,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="478" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="7" t="s">
         <v>9</v>
       </c>
@@ -10036,7 +10188,7 @@
         <v>0.29899999999999999</v>
       </c>
     </row>
-    <row r="479" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="7" t="s">
         <v>9</v>
       </c>
@@ -10056,7 +10208,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="480" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="7" t="s">
         <v>9</v>
       </c>
@@ -10076,7 +10228,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="481" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="7" t="s">
         <v>9</v>
       </c>
@@ -10096,7 +10248,7 @@
         <v>0.27100000000000002</v>
       </c>
     </row>
-    <row r="482" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="7" t="s">
         <v>9</v>
       </c>
@@ -10116,7 +10268,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="483" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="7" t="s">
         <v>9</v>
       </c>
@@ -10136,7 +10288,7 @@
         <v>0.59599999999999997</v>
       </c>
     </row>
-    <row r="484" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="7" t="s">
         <v>9</v>
       </c>
@@ -10156,7 +10308,7 @@
         <v>0.40300000000000002</v>
       </c>
     </row>
-    <row r="485" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="7" t="s">
         <v>9</v>
       </c>
@@ -10176,7 +10328,7 @@
         <v>0.255</v>
       </c>
     </row>
-    <row r="486" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="7" t="s">
         <v>9</v>
       </c>
@@ -10196,7 +10348,7 @@
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="487" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="7" t="s">
         <v>9</v>
       </c>
@@ -10216,7 +10368,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="488" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="7" t="s">
         <v>9</v>
       </c>
@@ -10236,7 +10388,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="489" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="15" t="s">
         <v>9</v>
       </c>
@@ -10256,7 +10408,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="490" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="7" t="s">
         <v>9</v>
       </c>
@@ -10276,7 +10428,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="491" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="7" t="s">
         <v>9</v>
       </c>
@@ -10296,7 +10448,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="492" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="7" t="s">
         <v>9</v>
       </c>
@@ -10316,7 +10468,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="493" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="7" t="s">
         <v>9</v>
       </c>
@@ -10336,7 +10488,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="494" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="7" t="s">
         <v>9</v>
       </c>
@@ -10356,7 +10508,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="495" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="7" t="s">
         <v>9</v>
       </c>
@@ -10376,7 +10528,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="496" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="7" t="s">
         <v>9</v>
       </c>
@@ -10396,7 +10548,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="497" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="7" t="s">
         <v>9</v>
       </c>
@@ -10416,7 +10568,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="498" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="7" t="s">
         <v>9</v>
       </c>
@@ -10436,7 +10588,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="499" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="7" t="s">
         <v>9</v>
       </c>
@@ -10456,7 +10608,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="500" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="15" t="s">
         <v>9</v>
       </c>
@@ -10476,7 +10628,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="501" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="7" t="s">
         <v>9</v>
       </c>
@@ -10496,7 +10648,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="502" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="7" t="s">
         <v>9</v>
       </c>
@@ -10516,7 +10668,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="503" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="7" t="s">
         <v>9</v>
       </c>
@@ -10536,7 +10688,7 @@
         <v>0.23300000000000001</v>
       </c>
     </row>
-    <row r="504" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="7" t="s">
         <v>9</v>
       </c>
@@ -10556,7 +10708,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="505" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="7" t="s">
         <v>9</v>
       </c>
@@ -10576,7 +10728,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="506" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="7" t="s">
         <v>9</v>
       </c>
@@ -10596,7 +10748,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="507" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="7" t="s">
         <v>9</v>
       </c>
@@ -10616,7 +10768,7 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="508" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="7" t="s">
         <v>9</v>
       </c>
@@ -10636,7 +10788,7 @@
         <v>0.56799999999999995</v>
       </c>
     </row>
-    <row r="509" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="7" t="s">
         <v>9</v>
       </c>
@@ -10656,7 +10808,7 @@
         <v>0.26500000000000001</v>
       </c>
     </row>
-    <row r="510" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="7" t="s">
         <v>9</v>
       </c>
@@ -10676,7 +10828,7 @@
         <v>0.35599999999999998</v>
       </c>
     </row>
-    <row r="511" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="7" t="s">
         <v>9</v>
       </c>
@@ -10696,7 +10848,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="512" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="7" t="s">
         <v>9</v>
       </c>
@@ -10716,7 +10868,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="513" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="7" t="s">
         <v>9</v>
       </c>
@@ -10736,7 +10888,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="514" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="7" t="s">
         <v>9</v>
       </c>
@@ -10756,7 +10908,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="515" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="7" t="s">
         <v>9</v>
       </c>
@@ -10776,7 +10928,7 @@
         <v>0.18099999999999999</v>
       </c>
     </row>
-    <row r="516" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="7" t="s">
         <v>9</v>
       </c>
@@ -10796,7 +10948,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="517" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="7" t="s">
         <v>9</v>
       </c>
@@ -10816,7 +10968,7 @@
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="518" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="7" t="s">
         <v>9</v>
       </c>
@@ -10836,7 +10988,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="519" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="7" t="s">
         <v>9</v>
       </c>
@@ -10856,7 +11008,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="520" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="7" t="s">
         <v>9</v>
       </c>
@@ -10876,7 +11028,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="521" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="7" t="s">
         <v>9</v>
       </c>
@@ -10896,7 +11048,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="522" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="7" t="s">
         <v>9</v>
       </c>
@@ -10916,7 +11068,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="523" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="7" t="s">
         <v>9</v>
       </c>
@@ -10936,7 +11088,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="524" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="7" t="s">
         <v>9</v>
       </c>
@@ -10956,7 +11108,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="525" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="7" t="s">
         <v>9</v>
       </c>
@@ -10976,7 +11128,7 @@
         <v>0.24399999999999999</v>
       </c>
     </row>
-    <row r="526" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="7" t="s">
         <v>9</v>
       </c>
@@ -10996,7 +11148,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="527" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="7" t="s">
         <v>9</v>
       </c>
@@ -11016,7 +11168,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="528" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="7" t="s">
         <v>9</v>
       </c>
@@ -11036,7 +11188,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="529" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="7" t="s">
         <v>9</v>
       </c>
@@ -11056,7 +11208,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="530" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="7" t="s">
         <v>9</v>
       </c>
@@ -11076,7 +11228,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="531" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="7" t="s">
         <v>9</v>
       </c>
@@ -11096,7 +11248,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="532" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="7" t="s">
         <v>9</v>
       </c>
@@ -11116,7 +11268,7 @@
         <v>0.46600000000000003</v>
       </c>
     </row>
-    <row r="533" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="7" t="s">
         <v>9</v>
       </c>
@@ -11136,7 +11288,7 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="534" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="7" t="s">
         <v>9</v>
       </c>
@@ -11156,7 +11308,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="535" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="7" t="s">
         <v>9</v>
       </c>
@@ -11176,7 +11328,7 @@
         <v>0.29899999999999999</v>
       </c>
     </row>
-    <row r="536" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="7" t="s">
         <v>9</v>
       </c>
@@ -11196,7 +11348,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="537" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="7" t="s">
         <v>9</v>
       </c>
@@ -11216,7 +11368,7 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="538" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="7" t="s">
         <v>9</v>
       </c>
@@ -11236,7 +11388,7 @@
         <v>0.184</v>
       </c>
     </row>
-    <row r="539" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="7" t="s">
         <v>9</v>
       </c>
@@ -11256,7 +11408,7 @@
         <v>0.27400000000000002</v>
       </c>
     </row>
-    <row r="540" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="7" t="s">
         <v>9</v>
       </c>
@@ -11276,7 +11428,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="541" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="7" t="s">
         <v>9</v>
       </c>
@@ -11296,7 +11448,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="542" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="7" t="s">
         <v>9</v>
       </c>
@@ -11316,7 +11468,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="543" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="7" t="s">
         <v>9</v>
       </c>
@@ -11336,7 +11488,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="544" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="7" t="s">
         <v>9</v>
       </c>
@@ -11356,7 +11508,7 @@
         <v>0.33100000000000002</v>
       </c>
     </row>
-    <row r="545" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="7" t="s">
         <v>9</v>
       </c>
@@ -11376,7 +11528,7 @@
         <v>0.28799999999999998</v>
       </c>
     </row>
-    <row r="546" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="7" t="s">
         <v>9</v>
       </c>
@@ -11396,7 +11548,7 @@
         <v>0.35499999999999998</v>
       </c>
     </row>
-    <row r="547" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="7" t="s">
         <v>9</v>
       </c>
@@ -11416,7 +11568,7 @@
         <v>0.27900000000000003</v>
       </c>
     </row>
-    <row r="548" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="7" t="s">
         <v>9</v>
       </c>
@@ -11436,7 +11588,7 @@
         <v>0.161</v>
       </c>
     </row>
-    <row r="549" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="7" t="s">
         <v>9</v>
       </c>
@@ -11456,7 +11608,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="550" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="7" t="s">
         <v>9</v>
       </c>
@@ -11476,7 +11628,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="551" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="7" t="s">
         <v>9</v>
       </c>
@@ -11496,7 +11648,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="552" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="7" t="s">
         <v>9</v>
       </c>
@@ -11516,7 +11668,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="553" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="7" t="s">
         <v>9</v>
       </c>
@@ -11536,7 +11688,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="554" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="7" t="s">
         <v>9</v>
       </c>
@@ -11556,7 +11708,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="555" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="7" t="s">
         <v>9</v>
       </c>
@@ -11576,7 +11728,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="556" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="7" t="s">
         <v>9</v>
       </c>
@@ -11596,7 +11748,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="557" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="7" t="s">
         <v>9</v>
       </c>
@@ -11616,7 +11768,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="558" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="7" t="s">
         <v>9</v>
       </c>
@@ -11636,7 +11788,7 @@
         <v>0.17100000000000001</v>
       </c>
     </row>
-    <row r="559" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="7" t="s">
         <v>9</v>
       </c>
@@ -11656,7 +11808,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="560" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="7" t="s">
         <v>9</v>
       </c>
@@ -11676,7 +11828,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="561" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="7" t="s">
         <v>9</v>
       </c>
@@ -11696,7 +11848,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="562" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="7" t="s">
         <v>9</v>
       </c>
@@ -11716,7 +11868,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="563" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="7" t="s">
         <v>9</v>
       </c>
@@ -11736,7 +11888,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="564" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="7" t="s">
         <v>9</v>
       </c>
@@ -11756,7 +11908,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="565" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="7" t="s">
         <v>9</v>
       </c>
@@ -11776,7 +11928,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="566" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="7" t="s">
         <v>9</v>
       </c>
@@ -11796,7 +11948,7 @@
         <v>0.66400000000000003</v>
       </c>
     </row>
-    <row r="567" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="7" t="s">
         <v>9</v>
       </c>
@@ -11816,7 +11968,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="568" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="7" t="s">
         <v>9</v>
       </c>
@@ -11836,7 +11988,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="569" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="7" t="s">
         <v>9</v>
       </c>
@@ -11856,7 +12008,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="570" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="7" t="s">
         <v>9</v>
       </c>
@@ -11876,7 +12028,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="571" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="7" t="s">
         <v>9</v>
       </c>
@@ -11896,7 +12048,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="572" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="7" t="s">
         <v>9</v>
       </c>
@@ -11916,7 +12068,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="573" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="7" t="s">
         <v>9</v>
       </c>
@@ -11936,7 +12088,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="574" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="7" t="s">
         <v>9</v>
       </c>
@@ -11956,7 +12108,7 @@
         <v>0.78400000000000003</v>
       </c>
     </row>
-    <row r="575" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="7" t="s">
         <v>9</v>
       </c>
@@ -11976,7 +12128,7 @@
         <v>0.35599999999999998</v>
       </c>
     </row>
-    <row r="576" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="7" t="s">
         <v>9</v>
       </c>
@@ -11996,7 +12148,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="577" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="7" t="s">
         <v>9</v>
       </c>
@@ -12016,7 +12168,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="578" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="7" t="s">
         <v>9</v>
       </c>
@@ -12036,7 +12188,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="579" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="7" t="s">
         <v>9</v>
       </c>
@@ -12056,7 +12208,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="580" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="7" t="s">
         <v>9</v>
       </c>
@@ -12076,7 +12228,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="581" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="7" t="s">
         <v>9</v>
       </c>
@@ -12096,7 +12248,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="582" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="7" t="s">
         <v>9</v>
       </c>
@@ -12116,7 +12268,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="583" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="7" t="s">
         <v>9</v>
       </c>
@@ -12136,7 +12288,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="584" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="7" t="s">
         <v>9</v>
       </c>
@@ -12156,7 +12308,7 @@
         <v>0.30399999999999999</v>
       </c>
     </row>
-    <row r="585" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="7" t="s">
         <v>9</v>
       </c>
@@ -12176,7 +12328,7 @@
         <v>0.23300000000000001</v>
       </c>
     </row>
-    <row r="586" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="7" t="s">
         <v>9</v>
       </c>
@@ -12196,7 +12348,7 @@
         <v>0.255</v>
       </c>
     </row>
-    <row r="587" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="7" t="s">
         <v>9</v>
       </c>
@@ -12216,7 +12368,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="588" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="7" t="s">
         <v>9</v>
       </c>
@@ -12236,7 +12388,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="589" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="7" t="s">
         <v>9</v>
       </c>
@@ -12256,7 +12408,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="590" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="7" t="s">
         <v>9</v>
       </c>
@@ -12276,7 +12428,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="591" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="7" t="s">
         <v>9</v>
       </c>
@@ -12296,7 +12448,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="592" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="7" t="s">
         <v>9</v>
       </c>
@@ -12316,7 +12468,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="593" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="7" t="s">
         <v>9</v>
       </c>
@@ -12336,7 +12488,7 @@
         <v>0.311</v>
       </c>
     </row>
-    <row r="594" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="7" t="s">
         <v>9</v>
       </c>
@@ -12356,7 +12508,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="595" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="7" t="s">
         <v>9</v>
       </c>
@@ -12376,7 +12528,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="596" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="7" t="s">
         <v>9</v>
       </c>
@@ -12396,7 +12548,7 @@
         <v>0.39700000000000002</v>
       </c>
     </row>
-    <row r="597" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="7" t="s">
         <v>9</v>
       </c>
@@ -12416,7 +12568,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="598" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="7" t="s">
         <v>9</v>
       </c>
@@ -12436,7 +12588,7 @@
         <v>1.1619999999999999</v>
       </c>
     </row>
-    <row r="599" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="7" t="s">
         <v>9</v>
       </c>
@@ -12456,7 +12608,7 @@
         <v>0.86199999999999999</v>
       </c>
     </row>
-    <row r="600" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="7" t="s">
         <v>9</v>
       </c>
@@ -12476,7 +12628,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="601" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="7" t="s">
         <v>9</v>
       </c>
@@ -12496,7 +12648,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="602" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="7" t="s">
         <v>9</v>
       </c>
@@ -12516,7 +12668,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="603" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="7" t="s">
         <v>9</v>
       </c>
@@ -12536,7 +12688,7 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="604" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="7" t="s">
         <v>9</v>
       </c>
@@ -12556,7 +12708,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="605" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="7" t="s">
         <v>14</v>
       </c>
@@ -12576,7 +12728,7 @@
         <v>0.23599999999999999</v>
       </c>
     </row>
-    <row r="606" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="7" t="s">
         <v>14</v>
       </c>
@@ -12596,7 +12748,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="607" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="7" t="s">
         <v>9</v>
       </c>
@@ -12616,7 +12768,7 @@
         <v>0.30399999999999999</v>
       </c>
     </row>
-    <row r="608" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="7" t="s">
         <v>9</v>
       </c>
@@ -12636,7 +12788,7 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="609" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="7" t="s">
         <v>9</v>
       </c>
@@ -12656,7 +12808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="610" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="7" t="s">
         <v>9</v>
       </c>
@@ -12676,7 +12828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="611" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="7" t="s">
         <v>9</v>
       </c>
@@ -12696,7 +12848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="612" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="7" t="s">
         <v>9</v>
       </c>
@@ -12716,7 +12868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="613" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="7" t="s">
         <v>9</v>
       </c>
@@ -12736,7 +12888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="614" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="7" t="s">
         <v>9</v>
       </c>
@@ -12756,7 +12908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="615" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="7" t="s">
         <v>9</v>
       </c>
@@ -12776,7 +12928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="616" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="7" t="s">
         <v>9</v>
       </c>
@@ -12796,7 +12948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="617" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="15" t="s">
         <v>15</v>
       </c>
@@ -12816,7 +12968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="618" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="7" t="s">
         <v>15</v>
       </c>
@@ -12836,7 +12988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="619" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="7" t="s">
         <v>15</v>
       </c>
@@ -12856,7 +13008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="620" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="7" t="s">
         <v>15</v>
       </c>
@@ -12876,7 +13028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="621" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="7" t="s">
         <v>15</v>
       </c>
@@ -12896,7 +13048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="622" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="7" t="s">
         <v>15</v>
       </c>
@@ -12916,7 +13068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="623" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="7" t="s">
         <v>15</v>
       </c>
@@ -12936,7 +13088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="624" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="7" t="s">
         <v>15</v>
       </c>
@@ -12956,7 +13108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="625" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="7" t="s">
         <v>15</v>
       </c>
@@ -12976,7 +13128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="626" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="7" t="s">
         <v>15</v>
       </c>
@@ -12996,7 +13148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="627" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="7" t="s">
         <v>15</v>
       </c>
@@ -13016,7 +13168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="628" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="7" t="s">
         <v>15</v>
       </c>
@@ -13036,7 +13188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="629" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="7" t="s">
         <v>15</v>
       </c>
@@ -13056,7 +13208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="630" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="7" t="s">
         <v>15</v>
       </c>
@@ -13076,7 +13228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="631" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="7" t="s">
         <v>15</v>
       </c>
@@ -13096,7 +13248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="632" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="7" t="s">
         <v>15</v>
       </c>
@@ -13116,7 +13268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="633" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="7" t="s">
         <v>15</v>
       </c>
@@ -13136,7 +13288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="634" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="7" t="s">
         <v>15</v>
       </c>
@@ -13156,7 +13308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="635" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="7" t="s">
         <v>15</v>
       </c>
@@ -13176,7 +13328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="636" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="7" t="s">
         <v>15</v>
       </c>
@@ -13196,7 +13348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="637" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="7" t="s">
         <v>15</v>
       </c>
@@ -13216,7 +13368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="638" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="15" t="s">
         <v>15</v>
       </c>
@@ -13236,7 +13388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="639" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="7" t="s">
         <v>15</v>
       </c>
@@ -13256,7 +13408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="640" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="7" t="s">
         <v>15</v>
       </c>
@@ -13276,7 +13428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="641" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="7" t="s">
         <v>15</v>
       </c>
@@ -13296,7 +13448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="642" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="7" t="s">
         <v>15</v>
       </c>
@@ -13316,7 +13468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="643" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="7" t="s">
         <v>15</v>
       </c>
@@ -13336,7 +13488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="644" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="7" t="s">
         <v>15</v>
       </c>
@@ -13356,7 +13508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="645" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="7" t="s">
         <v>15</v>
       </c>
@@ -13376,7 +13528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="646" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="7" t="s">
         <v>15</v>
       </c>
@@ -13396,7 +13548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="647" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="7" t="s">
         <v>15</v>
       </c>
@@ -13416,7 +13568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="648" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="7" t="s">
         <v>15</v>
       </c>
@@ -13436,7 +13588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="649" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="7" t="s">
         <v>15</v>
       </c>
@@ -13456,7 +13608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="650" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="7" t="s">
         <v>15</v>
       </c>
@@ -13476,7 +13628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="651" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="7" t="s">
         <v>15</v>
       </c>
@@ -13496,7 +13648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="652" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="7" t="s">
         <v>15</v>
       </c>
@@ -13516,7 +13668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="653" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="7" t="s">
         <v>15</v>
       </c>
@@ -13536,7 +13688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="654" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="7" t="s">
         <v>15</v>
       </c>
@@ -13556,7 +13708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="655" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="7" t="s">
         <v>15</v>
       </c>
@@ -13576,7 +13728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="656" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="7" t="s">
         <v>15</v>
       </c>
@@ -13596,7 +13748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="657" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="7" t="s">
         <v>15</v>
       </c>
@@ -13616,7 +13768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="658" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="7" t="s">
         <v>15</v>
       </c>
@@ -13636,7 +13788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="659" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="7" t="s">
         <v>15</v>
       </c>
@@ -13656,7 +13808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="660" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="7" t="s">
         <v>15</v>
       </c>
@@ -13676,7 +13828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="661" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="7" t="s">
         <v>15</v>
       </c>
@@ -13696,7 +13848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="662" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="7" t="s">
         <v>15</v>
       </c>
@@ -13716,7 +13868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="663" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="7" t="s">
         <v>15</v>
       </c>
@@ -13736,7 +13888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="664" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="7" t="s">
         <v>15</v>
       </c>
@@ -13756,7 +13908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="665" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="7" t="s">
         <v>15</v>
       </c>
@@ -13776,7 +13928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="666" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="7" t="s">
         <v>15</v>
       </c>
@@ -13796,7 +13948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="667" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="7" t="s">
         <v>15</v>
       </c>
@@ -13816,7 +13968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="668" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="7" t="s">
         <v>15</v>
       </c>
@@ -13836,7 +13988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="669" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="7" t="s">
         <v>15</v>
       </c>
@@ -13856,7 +14008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="670" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="7" t="s">
         <v>15</v>
       </c>
@@ -13876,7 +14028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="671" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="7" t="s">
         <v>15</v>
       </c>
@@ -13896,7 +14048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="672" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="7" t="s">
         <v>15</v>
       </c>
@@ -17977,7 +18129,30 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F180"/>
+  <autoFilter ref="A1:F875">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="NE"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <dateGroupItem year="2015" dateTimeGrouping="year"/>
+        <dateGroupItem year="2014" dateTimeGrouping="year"/>
+        <dateGroupItem year="2013" dateTimeGrouping="year"/>
+        <dateGroupItem year="2012" dateTimeGrouping="year"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="B2:B180">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B181:B365">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B366:B616">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>